--- a/projectmanagement/uploadspm/docfiles/BMC IT ASSETS updated.xlsx
+++ b/projectmanagement/uploadspm/docfiles/BMC IT ASSETS updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLCI_CB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155A1169-A904-464E-98F1-5A3EBECD1716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C37FF5D-239C-411E-9F34-2E5D799F6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{79BFB4D8-08CA-428A-80D4-87E4C3127FFE}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{79BFB4D8-08CA-428A-80D4-87E4C3127FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Laptop" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
   <si>
     <t>DEVICE NAME</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>2.40 gigahertz Intel 11th Gen Core i5-1135G9</t>
+  </si>
+  <si>
+    <t>2.40 gigahertz Intel 11th Gen Core i5-1135G10</t>
+  </si>
+  <si>
+    <t>1 160 510 312</t>
+  </si>
+  <si>
+    <t>km_algunas</t>
   </si>
 </sst>
 </file>
@@ -1148,38 +1157,38 @@
   <dimension ref="A3:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20:H21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="17.42578125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="17.375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" s="3" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="42.8">
       <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30">
+    <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="30">
+    <row r="13" spans="1:26" ht="28.55">
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="45">
+    <row r="14" spans="1:26" ht="42.8">
       <c r="A14" s="23" t="s">
         <v>74</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="15" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>88</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="16" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A16" s="35" t="s">
         <v>96</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="17" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>104</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>109</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>116</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>123</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="21" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>127</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>130</v>
       </c>
@@ -2431,11 +2440,11 @@
       <c r="G22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>41</v>
+      <c r="H22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>78</v>
@@ -2452,24 +2461,44 @@
       <c r="N22" s="12">
         <v>45715</v>
       </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="O22" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="Q22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
+      <c r="R22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="Z22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>133</v>
       </c>
@@ -2529,7 +2558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="35.15" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="20"/>
@@ -2557,7 +2586,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="30">
+    <row r="25" spans="1:26" ht="28.55">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>136</v>
@@ -2640,20 +2669,20 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" s="3" customFormat="1">
@@ -2795,20 +2824,20 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" s="3" customFormat="1">
